--- a/ResultadoEleicoesDistritos/SANTARÉM_GOLEGÃ.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_GOLEGÃ.xlsx
@@ -600,61 +600,61 @@
         <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="J2" t="n">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>74</v>
+      </c>
+      <c r="T2" t="n">
+        <v>103</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>938</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>11</v>
-      </c>
-      <c r="S2" t="n">
-        <v>62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>97</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>908</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>957</v>
+        <v>898</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
